--- a/data/teores de nutrientes no solo - 0-20.xlsx
+++ b/data/teores de nutrientes no solo - 0-20.xlsx
@@ -41,27 +41,6 @@
     <t>P-Resina</t>
   </si>
   <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>ph</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>Mg</t>
-  </si>
-  <si>
-    <t>H+Al</t>
-  </si>
-  <si>
-    <t>Al</t>
-  </si>
-  <si>
     <t>SB</t>
   </si>
   <si>
@@ -87,6 +66,27 @@
   </si>
   <si>
     <t>K_</t>
+  </si>
+  <si>
+    <t>MO_solo</t>
+  </si>
+  <si>
+    <t>pH_solo</t>
+  </si>
+  <si>
+    <t>k_solo</t>
+  </si>
+  <si>
+    <t>ca_solo</t>
+  </si>
+  <si>
+    <t>mg_solo</t>
+  </si>
+  <si>
+    <t>h_al_solo</t>
+  </si>
+  <si>
+    <t>al_solo</t>
   </si>
 </sst>
 </file>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,55 +442,55 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
